--- a/实验材料/maps.xlsx
+++ b/实验材料/maps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,10 +567,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -588,52 +588,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,31 +602,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,7 +618,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,11 +679,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,16 +717,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,7 +740,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +812,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,67 +872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,13 +896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,19 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,37 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,16 +935,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,17 +958,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,6 +991,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1014,9 +1023,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,164 +1046,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,63 +1200,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1385,7 +1385,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1409,9 +1409,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1435,7 +1435,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1488,7 +1488,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1513,7 +1513,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1527,13 +1527,16 @@
   <sheetPr/>
   <dimension ref="A1:AK185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K169" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AA185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="23" max="23" width="28" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:37">
+    <row r="1" customHeight="true" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1581,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:37">
+    <row r="2" spans="1:37">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1689,7 +1692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:37">
+    <row r="3" spans="1:37">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:37">
+    <row r="4" spans="1:37">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:37">
+    <row r="5" spans="1:37">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:37">
+    <row r="6" spans="1:37">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:37">
+    <row r="7" spans="1:37">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:37">
+    <row r="8" spans="1:37">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:37">
+    <row r="9" spans="1:37">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:37">
+    <row r="10" spans="1:37">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:37">
+    <row r="11" spans="1:37">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:37">
+    <row r="12" spans="1:37">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:37">
+    <row r="13" spans="1:37">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:37">
+    <row r="14" spans="1:37">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:37">
+    <row r="15" spans="1:37">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:37">
+    <row r="16" spans="1:37">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:37">
+    <row r="17" spans="1:37">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:37">
+    <row r="18" spans="1:37">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:37">
+    <row r="19" spans="1:37">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:37">
+    <row r="20" spans="1:37">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:37">
+    <row r="21" spans="1:37">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3836,7 +3839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:37">
+    <row r="22" spans="1:37">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:37">
+    <row r="23" spans="1:37">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:37">
+    <row r="24" spans="1:37">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:37">
+    <row r="25" spans="1:37">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:37">
+    <row r="26" spans="1:37">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:37">
+    <row r="27" spans="1:37">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:37">
+    <row r="28" spans="1:37">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:37">
+    <row r="29" spans="1:37">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:37">
+    <row r="30" spans="1:37">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:37">
+    <row r="31" spans="1:37">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:37">
+    <row r="32" spans="1:37">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:37">
+    <row r="33" spans="1:37">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:37">
+    <row r="34" spans="1:37">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:37">
+    <row r="35" spans="1:37">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:37">
+    <row r="36" spans="1:37">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:37">
+    <row r="37" spans="1:37">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:37">
+    <row r="38" spans="1:37">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:37">
+    <row r="39" spans="1:37">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:37">
+    <row r="40" spans="1:37">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:37">
+    <row r="41" spans="1:37">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:37">
+    <row r="42" spans="1:37">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:37">
+    <row r="43" spans="1:37">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:37">
+    <row r="44" spans="1:37">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:37">
+    <row r="45" spans="1:37">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:37">
+    <row r="46" spans="1:37">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:37">
+    <row r="47" spans="1:37">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:37">
+    <row r="48" spans="1:37">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:37">
+    <row r="49" spans="1:37">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:37">
+    <row r="50" spans="1:37">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -7113,7 +7116,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:37">
+    <row r="51" spans="1:37">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:37">
+    <row r="52" spans="1:37">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -7339,7 +7342,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:37">
+    <row r="53" spans="1:37">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:37">
+    <row r="54" spans="1:37">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -7565,7 +7568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:37">
+    <row r="55" spans="1:37">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -7678,7 +7681,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:37">
+    <row r="56" spans="1:37">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -7791,7 +7794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:37">
+    <row r="57" spans="1:37">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:37">
+    <row r="58" spans="1:37">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -8017,7 +8020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:37">
+    <row r="59" spans="1:37">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -8130,7 +8133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:37">
+    <row r="60" spans="1:37">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -8243,7 +8246,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:37">
+    <row r="61" spans="1:37">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:37">
+    <row r="62" spans="1:37">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -8469,7 +8472,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:37">
+    <row r="63" spans="1:37">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:37">
+    <row r="64" spans="1:37">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -8695,7 +8698,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:37">
+    <row r="65" spans="1:37">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:37">
+    <row r="66" spans="1:37">
       <c r="A66" s="2">
         <v>63</v>
       </c>
@@ -8921,7 +8924,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:37">
+    <row r="67" spans="1:37">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -9034,7 +9037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:37">
+    <row r="68" spans="1:37">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -9147,7 +9150,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:37">
+    <row r="69" spans="1:37">
       <c r="A69" s="2">
         <v>66</v>
       </c>
@@ -9260,7 +9263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:37">
+    <row r="70" spans="1:37">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:37">
+    <row r="71" spans="1:37">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:37">
+    <row r="72" spans="1:37">
       <c r="A72" s="2">
         <v>69</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:37">
+    <row r="73" spans="1:37">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -9712,7 +9715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:37">
+    <row r="74" spans="1:37">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -9825,7 +9828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:37">
+    <row r="75" spans="1:37">
       <c r="A75" s="2">
         <v>72</v>
       </c>
@@ -9938,7 +9941,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:37">
+    <row r="76" spans="1:37">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:37">
+    <row r="77" spans="1:37">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:37">
+    <row r="78" spans="1:37">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -10277,7 +10280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:37">
+    <row r="79" spans="1:37">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -10390,7 +10393,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:37">
+    <row r="80" spans="1:37">
       <c r="A80" s="2">
         <v>77</v>
       </c>
@@ -10503,7 +10506,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:37">
+    <row r="81" spans="1:37">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:37">
+    <row r="82" spans="1:37">
       <c r="A82" s="2">
         <v>79</v>
       </c>
@@ -10729,7 +10732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:37">
+    <row r="83" spans="1:37">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -10842,7 +10845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:37">
+    <row r="84" spans="1:37">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:37">
+    <row r="85" spans="1:37">
       <c r="A85" s="2">
         <v>82</v>
       </c>
@@ -11068,7 +11071,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:37">
+    <row r="86" spans="1:37">
       <c r="A86" s="2">
         <v>83</v>
       </c>
@@ -11181,7 +11184,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:37">
+    <row r="87" spans="1:37">
       <c r="A87" s="2">
         <v>84</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:37">
+    <row r="88" spans="1:37">
       <c r="A88" s="2">
         <v>85</v>
       </c>
@@ -11407,7 +11410,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:37">
+    <row r="89" spans="1:37">
       <c r="A89" s="2">
         <v>86</v>
       </c>
@@ -11520,7 +11523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:37">
+    <row r="90" spans="1:37">
       <c r="A90" s="2">
         <v>87</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:37">
+    <row r="91" spans="1:37">
       <c r="A91" s="2">
         <v>88</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:37">
+    <row r="92" spans="1:37">
       <c r="A92" s="2">
         <v>89</v>
       </c>
@@ -11859,7 +11862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:37">
+    <row r="93" spans="1:37">
       <c r="A93" s="2">
         <v>90</v>
       </c>
@@ -11972,7 +11975,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:37">
+    <row r="94" spans="1:37">
       <c r="A94" s="2">
         <v>91</v>
       </c>
@@ -12085,7 +12088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:37">
+    <row r="95" spans="1:37">
       <c r="A95" s="2">
         <v>92</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:37">
+    <row r="96" spans="1:37">
       <c r="A96" s="2">
         <v>93</v>
       </c>
@@ -12311,7 +12314,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:37">
+    <row r="97" spans="1:37">
       <c r="A97" s="2">
         <v>94</v>
       </c>
@@ -12424,7 +12427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:37">
+    <row r="98" spans="1:37">
       <c r="A98" s="2">
         <v>95</v>
       </c>
@@ -12537,7 +12540,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:37">
+    <row r="99" spans="1:37">
       <c r="A99" s="2">
         <v>96</v>
       </c>
@@ -12650,7 +12653,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:37">
+    <row r="100" spans="1:37">
       <c r="A100" s="2">
         <v>97</v>
       </c>
@@ -12763,7 +12766,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:37">
+    <row r="101" spans="1:37">
       <c r="A101" s="2">
         <v>98</v>
       </c>
@@ -12876,7 +12879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:37">
+    <row r="102" spans="1:37">
       <c r="A102" s="2">
         <v>99</v>
       </c>
@@ -12989,7 +12992,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:37">
+    <row r="103" spans="1:37">
       <c r="A103" s="2">
         <v>100</v>
       </c>
@@ -13102,7 +13105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:37">
+    <row r="104" spans="1:37">
       <c r="A104" s="2">
         <v>101</v>
       </c>
@@ -13215,7 +13218,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:37">
+    <row r="105" spans="1:37">
       <c r="A105" s="2">
         <v>102</v>
       </c>
@@ -13328,7 +13331,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:37">
+    <row r="106" spans="1:37">
       <c r="A106" s="2">
         <v>103</v>
       </c>
@@ -13441,7 +13444,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:37">
+    <row r="107" spans="1:37">
       <c r="A107" s="2">
         <v>104</v>
       </c>
@@ -13554,7 +13557,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:37">
+    <row r="108" spans="1:37">
       <c r="A108" s="2">
         <v>105</v>
       </c>
@@ -13667,7 +13670,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:37">
+    <row r="109" spans="1:37">
       <c r="A109" s="2">
         <v>106</v>
       </c>
@@ -13780,7 +13783,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:37">
+    <row r="110" spans="1:37">
       <c r="A110" s="2">
         <v>107</v>
       </c>
@@ -13893,7 +13896,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:37">
+    <row r="111" spans="1:37">
       <c r="A111" s="2">
         <v>108</v>
       </c>
@@ -14006,7 +14009,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:37">
+    <row r="112" spans="1:37">
       <c r="A112" s="2">
         <v>109</v>
       </c>
@@ -14119,7 +14122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:37">
+    <row r="113" spans="1:37">
       <c r="A113" s="2">
         <v>110</v>
       </c>
@@ -14232,7 +14235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:37">
+    <row r="114" spans="1:37">
       <c r="A114" s="2">
         <v>111</v>
       </c>
@@ -14345,7 +14348,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:37">
+    <row r="115" spans="1:37">
       <c r="A115" s="2">
         <v>112</v>
       </c>
@@ -14458,7 +14461,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:37">
+    <row r="116" spans="1:37">
       <c r="A116" s="2">
         <v>113</v>
       </c>
@@ -14571,7 +14574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:37">
+    <row r="117" spans="1:37">
       <c r="A117" s="2">
         <v>114</v>
       </c>
@@ -14684,7 +14687,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:37">
+    <row r="118" spans="1:37">
       <c r="A118" s="2">
         <v>115</v>
       </c>
@@ -14797,7 +14800,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:37">
+    <row r="119" spans="1:37">
       <c r="A119" s="2">
         <v>116</v>
       </c>
@@ -14910,7 +14913,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:37">
+    <row r="120" spans="1:37">
       <c r="A120" s="2">
         <v>117</v>
       </c>
@@ -15023,7 +15026,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:37">
+    <row r="121" spans="1:37">
       <c r="A121" s="2">
         <v>118</v>
       </c>
@@ -15136,7 +15139,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:37">
+    <row r="122" spans="1:37">
       <c r="A122" s="2">
         <v>119</v>
       </c>
@@ -15249,7 +15252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:37">
+    <row r="123" spans="1:37">
       <c r="A123" s="2">
         <v>120</v>
       </c>
@@ -15362,7 +15365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:37">
+    <row r="124" spans="1:37">
       <c r="A124" s="2">
         <v>121</v>
       </c>
@@ -15475,7 +15478,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:37">
+    <row r="125" spans="1:37">
       <c r="A125" s="2">
         <v>122</v>
       </c>
@@ -15588,7 +15591,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:37">
+    <row r="126" spans="1:37">
       <c r="A126" s="2">
         <v>123</v>
       </c>
@@ -15701,7 +15704,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:37">
+    <row r="127" spans="1:37">
       <c r="A127" s="2">
         <v>124</v>
       </c>
@@ -15814,7 +15817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:37">
+    <row r="128" spans="1:37">
       <c r="A128" s="2">
         <v>125</v>
       </c>
@@ -15927,7 +15930,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:37">
+    <row r="129" spans="1:37">
       <c r="A129" s="2">
         <v>126</v>
       </c>
@@ -16040,7 +16043,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:37">
+    <row r="130" spans="1:37">
       <c r="A130" s="2">
         <v>127</v>
       </c>
@@ -16153,7 +16156,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:37">
+    <row r="131" spans="1:37">
       <c r="A131" s="2">
         <v>128</v>
       </c>
@@ -16266,7 +16269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:37">
+    <row r="132" spans="1:37">
       <c r="A132" s="2">
         <v>129</v>
       </c>
@@ -16379,7 +16382,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:37">
+    <row r="133" spans="1:37">
       <c r="A133" s="2">
         <v>130</v>
       </c>
@@ -16492,7 +16495,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:37">
+    <row r="134" spans="1:37">
       <c r="A134" s="2">
         <v>131</v>
       </c>
@@ -16605,7 +16608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:37">
+    <row r="135" spans="1:37">
       <c r="A135" s="2">
         <v>132</v>
       </c>
@@ -16718,7 +16721,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:37">
+    <row r="136" spans="1:37">
       <c r="A136" s="2">
         <v>133</v>
       </c>
@@ -16831,7 +16834,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:37">
+    <row r="137" spans="1:37">
       <c r="A137" s="2">
         <v>134</v>
       </c>
@@ -16944,7 +16947,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:37">
+    <row r="138" spans="1:37">
       <c r="A138" s="2">
         <v>135</v>
       </c>
@@ -17057,7 +17060,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:37">
+    <row r="139" spans="1:37">
       <c r="A139" s="2">
         <v>136</v>
       </c>
@@ -17170,7 +17173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:37">
+    <row r="140" spans="1:37">
       <c r="A140" s="2">
         <v>137</v>
       </c>
@@ -17283,7 +17286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:37">
+    <row r="141" spans="1:37">
       <c r="A141" s="2">
         <v>138</v>
       </c>
@@ -17396,7 +17399,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:37">
+    <row r="142" spans="1:37">
       <c r="A142" s="2">
         <v>139</v>
       </c>
@@ -17509,7 +17512,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:37">
+    <row r="143" spans="1:37">
       <c r="A143" s="2">
         <v>140</v>
       </c>
@@ -17622,7 +17625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:37">
+    <row r="144" spans="1:37">
       <c r="A144" s="2">
         <v>141</v>
       </c>
@@ -17735,7 +17738,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:37">
+    <row r="145" spans="1:37">
       <c r="A145" s="2">
         <v>142</v>
       </c>
@@ -17848,7 +17851,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:37">
+    <row r="146" spans="1:37">
       <c r="A146" s="2">
         <v>143</v>
       </c>
@@ -17961,7 +17964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:37">
+    <row r="147" spans="1:37">
       <c r="A147" s="2">
         <v>144</v>
       </c>
@@ -18074,7 +18077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:37">
+    <row r="148" spans="1:37">
       <c r="A148" s="2">
         <v>145</v>
       </c>
@@ -18187,7 +18190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:37">
+    <row r="149" spans="1:37">
       <c r="A149" s="2">
         <v>146</v>
       </c>
@@ -18300,7 +18303,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:37">
+    <row r="150" spans="1:37">
       <c r="A150" s="2">
         <v>147</v>
       </c>
@@ -18413,7 +18416,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:37">
+    <row r="151" spans="1:37">
       <c r="A151" s="2">
         <v>148</v>
       </c>
@@ -18526,7 +18529,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:37">
+    <row r="152" spans="1:37">
       <c r="A152" s="2">
         <v>149</v>
       </c>
@@ -18639,7 +18642,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:37">
+    <row r="153" spans="1:37">
       <c r="A153" s="2">
         <v>150</v>
       </c>
@@ -18752,7 +18755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:37">
+    <row r="154" spans="1:37">
       <c r="A154" s="2">
         <v>151</v>
       </c>
@@ -18865,7 +18868,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:37">
+    <row r="155" spans="1:37">
       <c r="A155" s="2">
         <v>152</v>
       </c>
@@ -18978,7 +18981,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:37">
+    <row r="156" spans="1:37">
       <c r="A156" s="2">
         <v>153</v>
       </c>
@@ -19091,7 +19094,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:37">
+    <row r="157" spans="1:37">
       <c r="A157" s="2">
         <v>154</v>
       </c>
@@ -19204,7 +19207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:37">
+    <row r="158" spans="1:37">
       <c r="A158" s="2">
         <v>155</v>
       </c>
@@ -19317,7 +19320,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:37">
+    <row r="159" spans="1:37">
       <c r="A159" s="2">
         <v>156</v>
       </c>
@@ -19430,7 +19433,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:37">
+    <row r="160" spans="1:37">
       <c r="A160" s="2">
         <v>157</v>
       </c>
@@ -19543,7 +19546,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:37">
+    <row r="161" spans="1:37">
       <c r="A161" s="2">
         <v>158</v>
       </c>
@@ -19656,7 +19659,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:37">
+    <row r="162" spans="1:37">
       <c r="A162" s="2">
         <v>159</v>
       </c>
@@ -19769,7 +19772,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:37">
+    <row r="163" spans="1:37">
       <c r="A163" s="2">
         <v>160</v>
       </c>
@@ -19882,7 +19885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:37">
+    <row r="164" spans="1:37">
       <c r="A164" s="2">
         <v>161</v>
       </c>
@@ -19995,7 +19998,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:37">
+    <row r="165" spans="1:37">
       <c r="A165" s="2">
         <v>162</v>
       </c>
@@ -20108,7 +20111,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:37">
+    <row r="166" spans="1:37">
       <c r="A166" s="2">
         <v>163</v>
       </c>
@@ -20221,7 +20224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:37">
+    <row r="167" spans="1:37">
       <c r="A167" s="2">
         <v>164</v>
       </c>
@@ -20334,7 +20337,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:37">
+    <row r="168" spans="1:37">
       <c r="A168" s="2">
         <v>165</v>
       </c>
@@ -20447,7 +20450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:37">
+    <row r="169" spans="1:37">
       <c r="A169" s="2">
         <v>166</v>
       </c>
@@ -20560,7 +20563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:37">
+    <row r="170" spans="1:37">
       <c r="A170" s="2">
         <v>167</v>
       </c>
@@ -20673,7 +20676,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:37">
+    <row r="171" spans="1:37">
       <c r="A171" s="2">
         <v>168</v>
       </c>
@@ -20786,7 +20789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:37">
+    <row r="172" spans="1:37">
       <c r="A172" s="2">
         <v>169</v>
       </c>
@@ -20899,7 +20902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:37">
+    <row r="173" spans="1:37">
       <c r="A173" s="2">
         <v>170</v>
       </c>
@@ -21012,7 +21015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:37">
+    <row r="174" spans="1:37">
       <c r="A174" s="2">
         <v>171</v>
       </c>
@@ -21125,7 +21128,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:37">
+    <row r="175" spans="1:37">
       <c r="A175" s="2">
         <v>172</v>
       </c>
@@ -21238,7 +21241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:37">
+    <row r="176" spans="1:37">
       <c r="A176" s="2">
         <v>173</v>
       </c>
@@ -21351,7 +21354,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:37">
+    <row r="177" spans="1:37">
       <c r="A177" s="2">
         <v>174</v>
       </c>
@@ -21464,7 +21467,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:37">
+    <row r="178" spans="1:37">
       <c r="A178" s="2">
         <v>175</v>
       </c>
@@ -21577,7 +21580,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:37">
+    <row r="179" spans="1:37">
       <c r="A179" s="2">
         <v>176</v>
       </c>
@@ -21690,7 +21693,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:37">
+    <row r="180" spans="1:37">
       <c r="A180" s="2">
         <v>177</v>
       </c>
@@ -21803,7 +21806,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" ht="16.5" spans="1:37">
+    <row r="181" spans="1:37">
       <c r="A181" s="2">
         <v>178</v>
       </c>
@@ -21916,7 +21919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="1:37">
+    <row r="182" spans="1:37">
       <c r="A182" s="2">
         <v>179</v>
       </c>
@@ -22029,7 +22032,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:37">
+    <row r="183" spans="1:37">
       <c r="A183" s="2">
         <v>180</v>
       </c>
@@ -22142,7 +22145,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:37">
+    <row r="184" spans="1:37">
       <c r="A184" s="2">
         <v>181</v>
       </c>
@@ -22255,7 +22258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:37">
+    <row r="185" spans="1:37">
       <c r="A185" s="2">
         <v>182</v>
       </c>

--- a/实验材料/maps.xlsx
+++ b/实验材料/maps.xlsx
@@ -100,7 +100,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>.,</t>
+    <t>#</t>
   </si>
   <si>
     <t>$</t>
@@ -211,7 +211,7 @@
     <t>shift 29</t>
   </si>
   <si>
-    <t>reduce C -&gt; C ., S'</t>
+    <t>reduce C -&gt; C # S'</t>
   </si>
   <si>
     <t>shift 30</t>
@@ -595,7 +595,7 @@
     <t>shift 196</t>
   </si>
   <si>
-    <t>reduce C -&gt; C ., for ( S' , S , A ) { C }</t>
+    <t>reduce C -&gt; C # for ( S' , S , A ) { C }</t>
   </si>
   <si>
     <t>shift 200</t>
@@ -627,9 +627,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -654,7 +654,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -663,7 +662,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,14 +691,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,14 +707,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,7 +745,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,61 +790,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -800,7 +800,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +878,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,163 +974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,11 +1011,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,9 +1050,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,17 +1083,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,15 +1106,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1114,10 +1114,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1126,133 +1126,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1587,8 +1587,8 @@
   <sheetPr/>
   <dimension ref="A1:AL213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/实验材料/maps.xlsx
+++ b/实验材料/maps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="203">
   <si>
     <t>状态</t>
   </si>
@@ -621,18 +621,21 @@
   <si>
     <t>shift 210</t>
   </si>
+  <si>
+    <t>项目集规范族：</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,59 +650,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,6 +680,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -722,7 +705,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,6 +726,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -751,43 +779,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -800,7 +809,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,19 +899,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,25 +923,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,121 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,8 +1021,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,41 +1038,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,6 +1067,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1106,6 +1095,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1114,10 +1123,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1126,137 +1135,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,6 +1273,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1585,10 +1597,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL213"/>
+  <dimension ref="A1:AL216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -26232,6 +26244,354 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="214" spans="1:38">
+      <c r="A214">
+        <v>-1</v>
+      </c>
+      <c r="B214">
+        <v>-1</v>
+      </c>
+      <c r="C214">
+        <v>-1</v>
+      </c>
+      <c r="D214">
+        <v>-1</v>
+      </c>
+      <c r="E214">
+        <v>-1</v>
+      </c>
+      <c r="F214">
+        <v>-1</v>
+      </c>
+      <c r="G214">
+        <v>-1</v>
+      </c>
+      <c r="H214">
+        <v>-1</v>
+      </c>
+      <c r="I214">
+        <v>-1</v>
+      </c>
+      <c r="J214">
+        <v>-1</v>
+      </c>
+      <c r="K214">
+        <v>-1</v>
+      </c>
+      <c r="L214">
+        <v>-1</v>
+      </c>
+      <c r="M214">
+        <v>-1</v>
+      </c>
+      <c r="N214">
+        <v>-1</v>
+      </c>
+      <c r="O214">
+        <v>-1</v>
+      </c>
+      <c r="P214">
+        <v>-1</v>
+      </c>
+      <c r="Q214">
+        <v>-1</v>
+      </c>
+      <c r="R214">
+        <v>-1</v>
+      </c>
+      <c r="S214">
+        <v>-1</v>
+      </c>
+      <c r="T214">
+        <v>-1</v>
+      </c>
+      <c r="U214">
+        <v>-1</v>
+      </c>
+      <c r="V214">
+        <v>-1</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
+      </c>
+      <c r="AD214">
+        <v>-1</v>
+      </c>
+      <c r="AE214">
+        <v>-1</v>
+      </c>
+      <c r="AF214">
+        <v>-1</v>
+      </c>
+      <c r="AG214">
+        <v>-1</v>
+      </c>
+      <c r="AH214">
+        <v>-1</v>
+      </c>
+      <c r="AI214">
+        <v>-1</v>
+      </c>
+      <c r="AJ214">
+        <v>-1</v>
+      </c>
+      <c r="AK214">
+        <v>-1</v>
+      </c>
+      <c r="AL214">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38">
+      <c r="A215">
+        <v>-1</v>
+      </c>
+      <c r="B215">
+        <v>-1</v>
+      </c>
+      <c r="C215">
+        <v>-1</v>
+      </c>
+      <c r="D215">
+        <v>-1</v>
+      </c>
+      <c r="E215">
+        <v>-1</v>
+      </c>
+      <c r="F215">
+        <v>-1</v>
+      </c>
+      <c r="G215">
+        <v>-1</v>
+      </c>
+      <c r="H215">
+        <v>-1</v>
+      </c>
+      <c r="I215">
+        <v>-1</v>
+      </c>
+      <c r="J215">
+        <v>-1</v>
+      </c>
+      <c r="K215">
+        <v>-1</v>
+      </c>
+      <c r="L215">
+        <v>-1</v>
+      </c>
+      <c r="M215">
+        <v>-1</v>
+      </c>
+      <c r="N215">
+        <v>-1</v>
+      </c>
+      <c r="O215">
+        <v>-1</v>
+      </c>
+      <c r="P215">
+        <v>-1</v>
+      </c>
+      <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>-1</v>
+      </c>
+      <c r="S215">
+        <v>-1</v>
+      </c>
+      <c r="T215">
+        <v>-1</v>
+      </c>
+      <c r="U215">
+        <v>-1</v>
+      </c>
+      <c r="V215">
+        <v>-1</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>-1</v>
+      </c>
+      <c r="AD215">
+        <v>-1</v>
+      </c>
+      <c r="AE215">
+        <v>-1</v>
+      </c>
+      <c r="AF215">
+        <v>-1</v>
+      </c>
+      <c r="AG215">
+        <v>-1</v>
+      </c>
+      <c r="AH215">
+        <v>-1</v>
+      </c>
+      <c r="AI215">
+        <v>-1</v>
+      </c>
+      <c r="AJ215">
+        <v>-1</v>
+      </c>
+      <c r="AK215">
+        <v>-1</v>
+      </c>
+      <c r="AL215">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="216" ht="20.25" spans="1:38">
+      <c r="A216" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B216">
+        <v>-1</v>
+      </c>
+      <c r="C216">
+        <v>-1</v>
+      </c>
+      <c r="D216">
+        <v>-1</v>
+      </c>
+      <c r="E216">
+        <v>-1</v>
+      </c>
+      <c r="F216">
+        <v>-1</v>
+      </c>
+      <c r="G216">
+        <v>-1</v>
+      </c>
+      <c r="H216">
+        <v>-1</v>
+      </c>
+      <c r="I216">
+        <v>-1</v>
+      </c>
+      <c r="J216">
+        <v>-1</v>
+      </c>
+      <c r="K216">
+        <v>-1</v>
+      </c>
+      <c r="L216">
+        <v>-1</v>
+      </c>
+      <c r="M216">
+        <v>-1</v>
+      </c>
+      <c r="N216">
+        <v>-1</v>
+      </c>
+      <c r="O216">
+        <v>-1</v>
+      </c>
+      <c r="P216">
+        <v>-1</v>
+      </c>
+      <c r="Q216">
+        <v>-1</v>
+      </c>
+      <c r="R216">
+        <v>-1</v>
+      </c>
+      <c r="S216">
+        <v>-1</v>
+      </c>
+      <c r="T216">
+        <v>-1</v>
+      </c>
+      <c r="U216">
+        <v>-1</v>
+      </c>
+      <c r="V216">
+        <v>-1</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>-1</v>
+      </c>
+      <c r="AA216">
+        <v>-1</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
+      </c>
+      <c r="AD216">
+        <v>-1</v>
+      </c>
+      <c r="AE216">
+        <v>-1</v>
+      </c>
+      <c r="AF216">
+        <v>-1</v>
+      </c>
+      <c r="AG216">
+        <v>-1</v>
+      </c>
+      <c r="AH216">
+        <v>-1</v>
+      </c>
+      <c r="AI216">
+        <v>-1</v>
+      </c>
+      <c r="AJ216">
+        <v>-1</v>
+      </c>
+      <c r="AK216">
+        <v>-1</v>
+      </c>
+      <c r="AL216">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:AB1"/>
